--- a/H1/H1_SKEL.xlsx
+++ b/H1/H1_SKEL.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>[H1] STANDARD</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,10 +38,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PDM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>POWER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OUTPUT_DIRECTORY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FRONT_BRKT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,26 +199,6 @@
   </si>
   <si>
     <t>R_BEARING</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\git\PySolidworks\H1\N40S100W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\git\PySolidworks\H1\N60S200W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\git\PySolidworks\H1\N80S750W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\git\PySolidworks\H1\N100S1500W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D:\git\PySolidworks\H1\N130S1300W</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -303,7 +275,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,12 +321,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,7 +391,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -468,9 +434,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -557,12 +520,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -863,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL8"/>
+  <dimension ref="A1:AK8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -878,14 +835,14 @@
     <col min="6" max="6" width="7.625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="25" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="12.25" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.25" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="8.5" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.125" style="3" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="4.125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="9.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.375" style="25" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="12.25" style="3" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="11.25" style="3" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="13.125" style="3" bestFit="1" customWidth="1"/>
@@ -900,192 +857,185 @@
     <col min="33" max="33" width="13.125" style="3" customWidth="1"/>
     <col min="34" max="34" width="13.125" style="3" bestFit="1" customWidth="1"/>
     <col min="35" max="37" width="13.125" style="3" customWidth="1"/>
-    <col min="38" max="38" width="33.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="9" style="3"/>
+    <col min="38" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:37" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="R1" s="23"/>
+      <c r="I1" s="22"/>
+      <c r="R1" s="22"/>
     </row>
-    <row r="2" spans="1:38" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:37" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="37" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="32" t="s">
+      <c r="P2" s="36"/>
+      <c r="Q2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="34"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+      <c r="V2" s="33"/>
       <c r="W2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="38" t="s">
+      <c r="X2" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" s="38"/>
+      <c r="Z2" s="38"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ2" s="29"/>
+      <c r="AK2" s="30"/>
+    </row>
+    <row r="3" spans="1:37" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="X3" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="41" t="s">
+      <c r="Z3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA3" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="42"/>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="29" t="s">
+      <c r="AD3" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE3" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF3" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG3" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH3" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI3" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="14" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:38" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="W3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="X3" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y3" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z3" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA3" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="AB3" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC3" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD3" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE3" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF3" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG3" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH3" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI3" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="AJ3" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK3" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL3" s="44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:37" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4">
         <v>40</v>
       </c>
@@ -1110,7 +1060,7 @@
       <c r="H4" s="6">
         <v>7</v>
       </c>
-      <c r="I4" s="25">
+      <c r="I4" s="24">
         <v>6900</v>
       </c>
       <c r="J4" s="6">
@@ -1137,7 +1087,7 @@
       <c r="Q4" s="10">
         <v>16.899999999999999</v>
       </c>
-      <c r="R4" s="28">
+      <c r="R4" s="27">
         <v>698</v>
       </c>
       <c r="S4" s="10">
@@ -1155,53 +1105,50 @@
       <c r="W4" s="12">
         <v>22.5</v>
       </c>
-      <c r="X4" s="20">
+      <c r="X4" s="19">
         <v>24.4</v>
       </c>
-      <c r="Y4" s="20">
+      <c r="Y4" s="19">
         <v>8</v>
       </c>
-      <c r="Z4" s="20">
+      <c r="Z4" s="19">
         <v>8.4</v>
       </c>
-      <c r="AA4" s="20">
+      <c r="AA4" s="19">
         <v>6</v>
       </c>
-      <c r="AB4" s="18">
+      <c r="AB4" s="17">
         <v>37</v>
       </c>
-      <c r="AC4" s="18">
+      <c r="AC4" s="17">
         <v>24.5</v>
       </c>
-      <c r="AD4" s="18">
+      <c r="AD4" s="17">
         <v>35</v>
       </c>
-      <c r="AE4" s="18">
+      <c r="AE4" s="17">
         <v>2</v>
       </c>
-      <c r="AF4" s="18">
+      <c r="AF4" s="17">
         <v>3.5</v>
       </c>
-      <c r="AG4" s="18">
+      <c r="AG4" s="17">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AH4" s="18">
+      <c r="AH4" s="17">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AI4" s="22">
+      <c r="AI4" s="21">
         <v>24</v>
       </c>
-      <c r="AJ4" s="22">
+      <c r="AJ4" s="21">
         <v>9</v>
       </c>
-      <c r="AK4" s="22">
+      <c r="AK4" s="21">
         <v>25</v>
       </c>
-      <c r="AL4" s="45" t="s">
-        <v>48</v>
-      </c>
     </row>
-    <row r="5" spans="1:38" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:37" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4">
         <v>60</v>
       </c>
@@ -1226,7 +1173,7 @@
       <c r="H5" s="6">
         <v>14.8</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="24">
         <v>6202</v>
       </c>
       <c r="J5" s="6">
@@ -1253,7 +1200,7 @@
       <c r="Q5" s="10">
         <v>17.399999999999999</v>
       </c>
-      <c r="R5" s="28"/>
+      <c r="R5" s="27"/>
       <c r="S5" s="10">
         <v>24</v>
       </c>
@@ -1269,53 +1216,50 @@
       <c r="W5" s="12">
         <v>20</v>
       </c>
-      <c r="X5" s="20">
+      <c r="X5" s="19">
         <v>29.9</v>
       </c>
-      <c r="Y5" s="20">
+      <c r="Y5" s="19">
         <v>14</v>
       </c>
-      <c r="Z5" s="20">
+      <c r="Z5" s="19">
         <v>8.4</v>
       </c>
-      <c r="AA5" s="20">
+      <c r="AA5" s="19">
         <v>6</v>
       </c>
-      <c r="AB5" s="18">
+      <c r="AB5" s="17">
         <v>57.5</v>
       </c>
-      <c r="AC5" s="18">
+      <c r="AC5" s="17">
         <v>38.200000000000003</v>
       </c>
-      <c r="AD5" s="18">
+      <c r="AD5" s="17">
         <v>55</v>
       </c>
-      <c r="AE5" s="18">
+      <c r="AE5" s="17">
         <v>3</v>
       </c>
-      <c r="AF5" s="18">
+      <c r="AF5" s="17">
         <v>3.9</v>
       </c>
-      <c r="AG5" s="18">
+      <c r="AG5" s="17">
         <v>4</v>
       </c>
-      <c r="AH5" s="18">
+      <c r="AH5" s="17">
         <v>3.5</v>
       </c>
-      <c r="AI5" s="22">
+      <c r="AI5" s="21">
         <v>37.4</v>
       </c>
-      <c r="AJ5" s="22">
+      <c r="AJ5" s="21">
         <v>14</v>
       </c>
-      <c r="AK5" s="22">
+      <c r="AK5" s="21">
         <v>18</v>
       </c>
-      <c r="AL5" s="45" t="s">
-        <v>49</v>
-      </c>
     </row>
-    <row r="6" spans="1:38" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:37" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="4">
         <v>80</v>
       </c>
@@ -1340,7 +1284,7 @@
       <c r="H6" s="6">
         <v>15</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="24">
         <v>6004</v>
       </c>
       <c r="J6" s="6">
@@ -1367,7 +1311,7 @@
       <c r="Q6" s="10">
         <v>20.100000000000001</v>
       </c>
-      <c r="R6" s="28">
+      <c r="R6" s="27">
         <v>6201</v>
       </c>
       <c r="S6" s="10">
@@ -1385,53 +1329,50 @@
       <c r="W6" s="12">
         <v>21.5</v>
       </c>
-      <c r="X6" s="20">
+      <c r="X6" s="19">
         <v>40</v>
       </c>
-      <c r="Y6" s="20">
+      <c r="Y6" s="19">
         <v>19</v>
       </c>
-      <c r="Z6" s="20">
+      <c r="Z6" s="19">
         <v>8.4</v>
       </c>
-      <c r="AA6" s="20">
+      <c r="AA6" s="19">
         <v>6</v>
       </c>
-      <c r="AB6" s="18">
+      <c r="AB6" s="17">
         <v>76</v>
       </c>
-      <c r="AC6" s="18">
+      <c r="AC6" s="17">
         <v>48.5</v>
       </c>
-      <c r="AD6" s="18">
+      <c r="AD6" s="17">
         <v>73.5</v>
       </c>
-      <c r="AE6" s="18">
+      <c r="AE6" s="17">
         <v>5</v>
       </c>
-      <c r="AF6" s="18">
+      <c r="AF6" s="17">
         <v>6.5</v>
       </c>
-      <c r="AG6" s="18">
+      <c r="AG6" s="17">
         <v>4</v>
       </c>
-      <c r="AH6" s="18">
+      <c r="AH6" s="17">
         <v>3</v>
       </c>
-      <c r="AI6" s="22">
+      <c r="AI6" s="21">
         <v>47.8</v>
       </c>
-      <c r="AJ6" s="22">
+      <c r="AJ6" s="21">
         <v>20</v>
       </c>
-      <c r="AK6" s="22">
+      <c r="AK6" s="21">
         <v>40</v>
       </c>
-      <c r="AL6" s="45" t="s">
-        <v>50</v>
-      </c>
     </row>
-    <row r="7" spans="1:38" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:37" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="4">
         <v>100</v>
       </c>
@@ -1456,7 +1397,7 @@
       <c r="H7" s="6">
         <v>35.200000000000003</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="24">
         <v>6206</v>
       </c>
       <c r="J7" s="6">
@@ -1483,7 +1424,7 @@
       <c r="Q7" s="10">
         <v>27.5</v>
       </c>
-      <c r="R7" s="28">
+      <c r="R7" s="27">
         <v>6203</v>
       </c>
       <c r="S7" s="10">
@@ -1501,53 +1442,50 @@
       <c r="W7" s="12">
         <v>28</v>
       </c>
-      <c r="X7" s="20">
+      <c r="X7" s="19">
         <v>44.8</v>
       </c>
-      <c r="Y7" s="20">
+      <c r="Y7" s="19">
         <v>24</v>
       </c>
-      <c r="Z7" s="20">
+      <c r="Z7" s="19">
         <v>8.4</v>
       </c>
-      <c r="AA7" s="20">
+      <c r="AA7" s="19">
         <v>6</v>
       </c>
-      <c r="AB7" s="18">
+      <c r="AB7" s="17">
         <v>95</v>
       </c>
-      <c r="AC7" s="18">
+      <c r="AC7" s="17">
         <v>48</v>
       </c>
-      <c r="AD7" s="18">
+      <c r="AD7" s="17">
         <v>91</v>
       </c>
-      <c r="AE7" s="18">
+      <c r="AE7" s="17">
         <v>5</v>
       </c>
-      <c r="AF7" s="18">
+      <c r="AF7" s="17">
         <v>15.6</v>
       </c>
-      <c r="AG7" s="18">
+      <c r="AG7" s="17">
         <v>6.4</v>
       </c>
-      <c r="AH7" s="18">
+      <c r="AH7" s="17">
         <v>1.4</v>
       </c>
-      <c r="AI7" s="22">
+      <c r="AI7" s="21">
         <v>47</v>
       </c>
-      <c r="AJ7" s="22">
+      <c r="AJ7" s="21">
         <v>27</v>
       </c>
-      <c r="AK7" s="22">
+      <c r="AK7" s="21">
         <v>56</v>
       </c>
-      <c r="AL7" s="45" t="s">
-        <v>51</v>
-      </c>
     </row>
-    <row r="8" spans="1:38" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:37" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="4">
         <v>130</v>
       </c>
@@ -1572,7 +1510,7 @@
       <c r="H8" s="6">
         <v>30.8</v>
       </c>
-      <c r="I8" s="25">
+      <c r="I8" s="24">
         <v>6206</v>
       </c>
       <c r="J8" s="6">
@@ -1599,7 +1537,7 @@
       <c r="Q8" s="10">
         <v>31</v>
       </c>
-      <c r="R8" s="28">
+      <c r="R8" s="27">
         <v>6204</v>
       </c>
       <c r="S8" s="10">
@@ -1617,50 +1555,47 @@
       <c r="W8" s="12">
         <v>28</v>
       </c>
-      <c r="X8" s="20">
+      <c r="X8" s="19">
         <v>58.2</v>
       </c>
-      <c r="Y8" s="20">
+      <c r="Y8" s="19">
         <v>22</v>
       </c>
-      <c r="Z8" s="20">
+      <c r="Z8" s="19">
         <v>8.4</v>
       </c>
-      <c r="AA8" s="20">
+      <c r="AA8" s="19">
         <v>6</v>
       </c>
-      <c r="AB8" s="18">
+      <c r="AB8" s="17">
         <v>122</v>
       </c>
-      <c r="AC8" s="18">
+      <c r="AC8" s="17">
         <v>85</v>
       </c>
-      <c r="AD8" s="18">
+      <c r="AD8" s="17">
         <v>118</v>
       </c>
-      <c r="AE8" s="18">
+      <c r="AE8" s="17">
         <v>9</v>
       </c>
-      <c r="AF8" s="18">
+      <c r="AF8" s="17">
         <v>18</v>
       </c>
-      <c r="AG8" s="18">
+      <c r="AG8" s="17">
         <v>3</v>
       </c>
-      <c r="AH8" s="18">
+      <c r="AH8" s="17">
         <v>1.5</v>
       </c>
-      <c r="AI8" s="22">
+      <c r="AI8" s="21">
         <v>83</v>
       </c>
-      <c r="AJ8" s="22">
+      <c r="AJ8" s="21">
         <v>35</v>
       </c>
-      <c r="AK8" s="22">
+      <c r="AK8" s="21">
         <v>68</v>
-      </c>
-      <c r="AL8" s="45" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
